--- a/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.1_2015.xlsx
+++ b/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.1_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9720" tabRatio="432" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="24000" windowHeight="9720" tabRatio="432"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de Riesgos" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,12 @@
     <definedName name="Tipo_Proyecto">Tablas!$G$20:$G$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
   <si>
     <t>Situación de la estrategia</t>
   </si>
@@ -423,9 +424,6 @@
     <t>REGISTRO DE RIESGOS PROYECTO UTP-GPS ALARM</t>
   </si>
   <si>
-    <t>Sábado 19 de Setiembre de 2015</t>
-  </si>
-  <si>
     <t>Jefe de Proyecto</t>
   </si>
   <si>
@@ -505,6 +503,12 @@
   </si>
   <si>
     <t xml:space="preserve">Roger Apaestegui </t>
+  </si>
+  <si>
+    <t>Sábado 17 de Octubre de 2015</t>
+  </si>
+  <si>
+    <t>Se fusionará dos módulos para incrementar la operatividad y eficiencia de la aplicación a desarrollar. Así evitar que el cliente piense en optar por productos alternos nuevos en el mercado.</t>
   </si>
 </sst>
 </file>
@@ -1856,15 +1860,6 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1879,9 +1874,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1893,15 +1885,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1912,6 +1898,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2659,23 +2663,23 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
     <col min="4" max="5" width="7.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="45" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
@@ -2686,44 +2690,44 @@
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
       <c r="D1" s="99"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="93"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="11.25" customHeight="1">
       <c r="A2" s="99"/>
       <c r="B2" s="99"/>
       <c r="C2" s="99"/>
       <c r="D2" s="99"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="93"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1">
       <c r="A3" s="99"/>
       <c r="B3" s="99"/>
       <c r="C3" s="99"/>
       <c r="D3" s="99"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="93"/>
-      <c r="J3" s="92"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="88"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
       <c r="A4" s="99"/>
       <c r="B4" s="99"/>
       <c r="C4" s="99"/>
       <c r="D4" s="99"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="93"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="88"/>
     </row>
     <row r="5" spans="1:11" ht="8.25" customHeight="1"/>
-    <row r="6" spans="1:11" s="95" customFormat="1" ht="20.25">
+    <row r="6" spans="1:11" s="89" customFormat="1" ht="20.25">
       <c r="A6" s="112" t="s">
         <v>117</v>
       </c>
@@ -2748,7 +2752,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1">
@@ -2758,14 +2762,14 @@
       <c r="B8" s="116"/>
       <c r="C8" s="117"/>
       <c r="D8" s="106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="107"/>
       <c r="F8" s="108"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1">
@@ -2779,7 +2783,7 @@
       </c>
       <c r="E9" s="107"/>
       <c r="F9" s="108"/>
-      <c r="G9" s="79"/>
+      <c r="G9" s="96"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="69"/>
@@ -2791,11 +2795,11 @@
       <c r="B10" s="119"/>
       <c r="C10" s="120"/>
       <c r="D10" s="103" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E10" s="104"/>
       <c r="F10" s="105"/>
-      <c r="G10" s="80"/>
+      <c r="G10" s="97"/>
       <c r="I10" s="69"/>
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
@@ -2812,16 +2816,16 @@
       </c>
       <c r="E11" s="110"/>
       <c r="F11" s="111"/>
-      <c r="G11" s="81"/>
+      <c r="G11" s="98"/>
       <c r="I11" s="69"/>
       <c r="J11" s="69"/>
       <c r="K11" s="69"/>
     </row>
     <row r="12" spans="1:11" ht="8.25" customHeight="1">
       <c r="C12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" s="75" customFormat="1" ht="14.25">
@@ -2873,7 +2877,7 @@
       <c r="I14" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="86" t="s">
+      <c r="J14" s="83" t="s">
         <v>34</v>
       </c>
       <c r="K14" s="78" t="s">
@@ -2885,340 +2889,342 @@
         <v>1</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="81">
         <v>0.5</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="82">
         <v>4</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="82">
         <f t="shared" ref="F15:F20" si="0">D15*E15</f>
         <v>2</v>
       </c>
-      <c r="G15" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="87" t="s">
+      <c r="G15" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="83"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" ht="27" customHeight="1">
       <c r="A16" s="77">
         <v>2</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="81">
         <v>0.3</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="82">
         <v>3</v>
       </c>
-      <c r="F16" s="85">
+      <c r="F16" s="82">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="90" t="s">
+      <c r="H16" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="83"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:11" ht="27" customHeight="1">
       <c r="A17" s="77">
         <v>3</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="81">
         <v>0.1</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="82">
         <v>5</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="82">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G17" s="83" t="s">
+      <c r="G17" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="85" t="s">
+      <c r="I17" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="87" t="s">
+      <c r="J17" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="82"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="1:11" ht="39" customHeight="1">
       <c r="A18" s="77">
         <v>4</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="81">
         <v>0.5</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="82">
         <v>4</v>
       </c>
-      <c r="F18" s="85">
+      <c r="F18" s="82">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="H18" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" s="87" t="s">
+      <c r="J18" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="82"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="1:11" ht="42" customHeight="1">
       <c r="A19" s="77">
         <v>5</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="81">
         <v>0.3</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="82">
         <v>2</v>
       </c>
-      <c r="F19" s="85">
+      <c r="F19" s="82">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="90" t="s">
+      <c r="H19" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="82"/>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="1:11" ht="27" customHeight="1">
       <c r="A20" s="77">
         <v>6</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="81">
         <v>0.5</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="82">
         <v>5</v>
       </c>
-      <c r="F20" s="85">
+      <c r="F20" s="82">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="90" t="s">
+      <c r="H20" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="87" t="s">
+      <c r="J20" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="82"/>
+      <c r="K20" s="79"/>
     </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" ht="39" customHeight="1">
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="56.25">
       <c r="A21" s="77">
         <v>7</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="84">
+      <c r="D21" s="81">
         <v>0.3</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E21" s="82">
         <v>3</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="82">
         <f>D21*E21</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G21" s="83" t="s">
+      <c r="G21" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="90" t="s">
+      <c r="H21" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="82"/>
+      <c r="J21" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="79" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="45" customHeight="1">
       <c r="A22" s="77">
         <v>8</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="81">
         <v>0.9</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="82">
         <v>3</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="82">
         <f>D22*E22</f>
         <v>2.7</v>
       </c>
-      <c r="G22" s="83" t="s">
+      <c r="G22" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="83" t="s">
+      <c r="H22" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="I22" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="87" t="s">
+      <c r="J22" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="82"/>
+      <c r="K22" s="79"/>
     </row>
     <row r="23" spans="1:11" ht="36" customHeight="1">
       <c r="A23" s="77">
         <v>9</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="81">
         <v>0.3</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="82">
         <v>5</v>
       </c>
-      <c r="F23" s="85">
+      <c r="F23" s="82">
         <f>D23*E23</f>
         <v>1.5</v>
       </c>
-      <c r="G23" s="83" t="s">
+      <c r="G23" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="83" t="s">
+      <c r="H23" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23" s="87" t="s">
+      <c r="J23" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="82"/>
+      <c r="K23" s="79"/>
     </row>
     <row r="24" spans="1:11" ht="27" customHeight="1">
       <c r="A24" s="77">
         <v>10</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="81">
         <v>0.3</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="82">
         <v>4</v>
       </c>
-      <c r="F24" s="85">
+      <c r="F24" s="82">
         <f>D24*E24</f>
         <v>1.2</v>
       </c>
-      <c r="G24" s="83" t="s">
+      <c r="G24" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="90" t="s">
+      <c r="I24" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="J24" s="87" t="s">
+      <c r="J24" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="82"/>
+      <c r="K24" s="79"/>
     </row>
     <row r="25" spans="1:11" ht="27" customHeight="1">
       <c r="A25" s="77">
@@ -3227,32 +3233,32 @@
       <c r="B25" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="81">
         <v>0.7</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="82">
         <v>4</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="82">
         <f>D25*E25</f>
         <v>2.8</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="83" t="s">
+      <c r="H25" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="90" t="s">
+      <c r="I25" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="82"/>
+      <c r="J25" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="79"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3352,7 +3358,7 @@
         <v>104</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="19" customFormat="1">
@@ -3364,7 +3370,7 @@
         <v>108</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="19" customFormat="1">
@@ -3376,7 +3382,7 @@
         <v>106</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="19" customFormat="1">
@@ -3551,7 +3557,7 @@
     </row>
     <row r="28" spans="2:7" s="19" customFormat="1">
       <c r="G28" s="76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:7" s="19" customFormat="1"/>
@@ -10680,7 +10686,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B1:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -10773,7 +10779,7 @@
       <c r="E5" s="22">
         <v>0.9</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
       <c r="I5" s="28"/>
@@ -10921,7 +10927,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="98"/>
+      <c r="J9" s="92"/>
       <c r="L9" s="41" t="s">
         <v>26</v>
       </c>
@@ -11075,126 +11081,126 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:11">
-      <c r="D5" s="88"/>
+      <c r="D5" s="84"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
     </row>
     <row r="13" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
     </row>
     <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.1_2015.xlsx
+++ b/Area_de_Proceso-_PP-PMC/REGRI/REGRI_V1.1_2015.xlsx
@@ -5,24 +5,25 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_PP-PMC\REGRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="24000" windowHeight="9720" tabRatio="432"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9720" tabRatio="432" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de Riesgos" sheetId="1" r:id="rId1"/>
-    <sheet name="Tablas" sheetId="5" r:id="rId2"/>
-    <sheet name="Definiciones" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId2"/>
+    <sheet name="Tablas" sheetId="5" r:id="rId3"/>
+    <sheet name="Definiciones" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Matriz de Riesgos'!$A$14:$K$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tablas!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tablas!#REF!</definedName>
     <definedName name="asf">[1]Tablas!$C$3:$C$7</definedName>
     <definedName name="Categoria_Origen">Tablas!$C$17:$C$25</definedName>
     <definedName name="Est_riesgo">Tablas!$G$14:$G$16</definedName>
@@ -37,12 +38,11 @@
     <definedName name="Tipo_Proyecto">Tablas!$G$20:$G$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="164">
   <si>
     <t>Situación de la estrategia</t>
   </si>
@@ -505,10 +505,61 @@
     <t xml:space="preserve">Roger Apaestegui </t>
   </si>
   <si>
-    <t>Sábado 17 de Octubre de 2015</t>
-  </si>
-  <si>
-    <t>Se fusionará dos módulos para incrementar la operatividad y eficiencia de la aplicación a desarrollar. Así evitar que el cliente piense en optar por productos alternos nuevos en el mercado.</t>
+    <t>Martes 20 de Octubre de 2015</t>
+  </si>
+  <si>
+    <t>Que no se ejecute un buen control de QA debido a falta de experiencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que la Induccion de Personal no cumpla las expectativas </t>
+  </si>
+  <si>
+    <t>Que GC no tenga un buen control de Repositorio de Datos</t>
+  </si>
+  <si>
+    <t>Que las fechas de Practicas ocasionen un atraso en el avance del proyecto</t>
+  </si>
+  <si>
+    <t>Que se tome demasiado tiempo en el proceso de MA de Producto</t>
+  </si>
+  <si>
+    <t>Que las Metricas esten mal elaboradas</t>
+  </si>
+  <si>
+    <t>Que no se cumplan las fechas establecidas en el Cronograma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar con el Profesor para recibir reforzamiento sobre estos temas en clase </t>
+  </si>
+  <si>
+    <t>Establecer seguimiento respectivo y asi mismo estar en constante evaluacion de personal inducido</t>
+  </si>
+  <si>
+    <t>Realizar solicitud de Informe de Auditoria de CM</t>
+  </si>
+  <si>
+    <t>Estudiar durante las noches y priorizar objetivos , dejar de lado fines de semana de diversion y avanzar lo establecido.</t>
+  </si>
+  <si>
+    <t>Hacer seguimiento a Cronograma y verificar que se este avanzando conforme a lo estipulado</t>
+  </si>
+  <si>
+    <t>Demora en elaboracion de Software</t>
+  </si>
+  <si>
+    <t>Pesimo control y seguimiento de Avance del proyecto</t>
+  </si>
+  <si>
+    <t>Insatisfaccion del Cliente</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Setiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
   </si>
 </sst>
 </file>
@@ -795,7 +846,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,8 +1100,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1586,6 +1643,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1636,7 +1704,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1860,8 +1928,14 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1874,6 +1948,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1885,9 +1962,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1900,24 +1983,6 @@
     <xf numFmtId="164" fontId="3" fillId="6" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2034,6 +2099,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="44" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="44" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="44" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -2661,88 +2756,90 @@
     <outlinePr summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="45" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="4"/>
+    <col min="13" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A1" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="92"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="88"/>
+    <row r="2" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="92"/>
     </row>
-    <row r="3" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="88"/>
-      <c r="J3" s="93"/>
+    <row r="3" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="92"/>
+      <c r="J3" s="91"/>
     </row>
-    <row r="4" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="88"/>
+    <row r="4" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="92"/>
     </row>
-    <row r="5" spans="1:11" ht="8.25" customHeight="1"/>
-    <row r="6" spans="1:11" s="89" customFormat="1" ht="20.25">
-      <c r="A6" s="112" t="s">
+    <row r="5" spans="1:12" ht="8.25" customHeight="1"/>
+    <row r="6" spans="1:12" s="94" customFormat="1" ht="20.25">
+      <c r="A6" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="114"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="139"/>
     </row>
-    <row r="7" spans="1:11" ht="9" customHeight="1">
+    <row r="7" spans="1:12" ht="9" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2752,104 +2849,105 @@
       <c r="G7" s="18"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A8" s="115" t="s">
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A8" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="106" t="s">
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="18"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A9" s="115" t="s">
+    <row r="9" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A9" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="106" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="96"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="79"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A10" s="118" t="s">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A10" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="103" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="97"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="80"/>
       <c r="I10" s="69"/>
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
     </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A11" s="118" t="s">
+    <row r="11" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A11" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="109">
-        <f>AVERAGE(F15:F18)/4.5</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="98"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="108">
+        <f>AVERAGE(F15:F16,F18,F21,F22,F23,F25,F26,F27,F28,F29,F30,F31,F32)/4.5</f>
+        <v>0.14761904761904757</v>
+      </c>
+      <c r="E11" s="109"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="81"/>
       <c r="I11" s="69"/>
       <c r="J11" s="69"/>
       <c r="K11" s="69"/>
     </row>
-    <row r="12" spans="1:11" ht="8.25" customHeight="1">
+    <row r="12" spans="1:12" ht="8.25" customHeight="1">
       <c r="C12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" s="75" customFormat="1" ht="14.25">
-      <c r="A13" s="100" t="s">
+    <row r="13" spans="1:12" s="75" customFormat="1" ht="14.25">
+      <c r="A13" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="100" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="100" t="s">
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="100" t="s">
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="102"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
     </row>
-    <row r="14" spans="1:11" s="70" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:12" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="78" t="s">
         <v>94</v>
       </c>
@@ -2877,388 +2975,681 @@
       <c r="I14" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="83" t="s">
+      <c r="J14" s="85" t="s">
         <v>34</v>
       </c>
       <c r="K14" s="78" t="s">
         <v>99</v>
       </c>
+      <c r="L14" s="78" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="33.75">
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="33.75">
       <c r="A15" s="77">
         <v>1</v>
       </c>
       <c r="B15" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="82">
+      <c r="D15" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="84">
         <v>4</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="84">
         <f t="shared" ref="F15:F20" si="0">D15*E15</f>
-        <v>2</v>
-      </c>
-      <c r="G15" s="86" t="s">
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="86" t="s">
+      <c r="I15" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="J15" s="94" t="s">
+      <c r="J15" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="80"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="89" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" ht="27" customHeight="1">
+    <row r="16" spans="1:12" ht="27" customHeight="1">
       <c r="A16" s="77">
         <v>2</v>
       </c>
       <c r="B16" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="81">
+      <c r="D16" s="83">
         <v>0.3</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="84">
         <v>3</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="84">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="80" t="s">
+      <c r="H16" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="86" t="s">
+      <c r="I16" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="94" t="s">
+      <c r="J16" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="80"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="89" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" ht="27" customHeight="1">
-      <c r="A17" s="77">
+    <row r="17" spans="1:12" s="146" customFormat="1" ht="27" customHeight="1">
+      <c r="A17" s="140">
         <v>3</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="142">
         <v>0.1</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="141">
         <v>5</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="141">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="94" t="s">
+      <c r="J17" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="79"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="144" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" ht="39" customHeight="1">
+    <row r="18" spans="1:12" ht="39" customHeight="1">
       <c r="A18" s="77">
         <v>4</v>
       </c>
       <c r="B18" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="82">
-        <v>4</v>
-      </c>
-      <c r="F18" s="82">
+      <c r="D18" s="83">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="84">
+        <v>3</v>
+      </c>
+      <c r="F18" s="84">
         <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="82"/>
+      <c r="L18" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="146" customFormat="1" ht="42" customHeight="1">
+      <c r="A19" s="140">
+        <v>5</v>
+      </c>
+      <c r="B19" s="140" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="142">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="141">
         <v>2</v>
       </c>
-      <c r="G18" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="79"/>
-    </row>
-    <row r="19" spans="1:11" ht="42" customHeight="1">
-      <c r="A19" s="77">
-        <v>5</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="81">
-        <v>0.3</v>
-      </c>
-      <c r="E19" s="82">
-        <v>2</v>
-      </c>
-      <c r="F19" s="82">
+      <c r="F19" s="141">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="G19" s="86" t="s">
+      <c r="G19" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="80" t="s">
+      <c r="H19" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="I19" s="86" t="s">
+      <c r="I19" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="J19" s="94" t="s">
+      <c r="J19" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="79"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="144" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" ht="27" customHeight="1">
-      <c r="A20" s="77">
+    <row r="20" spans="1:12" s="146" customFormat="1" ht="27" customHeight="1">
+      <c r="A20" s="140">
         <v>6</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="82">
-        <v>5</v>
-      </c>
-      <c r="F20" s="82">
+      <c r="D20" s="142">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="141">
+        <v>3</v>
+      </c>
+      <c r="F20" s="141">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G20" s="86" t="s">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G20" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="80" t="s">
+      <c r="H20" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="86" t="s">
+      <c r="I20" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="94" t="s">
+      <c r="J20" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="79"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" ht="56.25">
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="39" customHeight="1">
       <c r="A21" s="77">
         <v>7</v>
       </c>
       <c r="B21" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="83">
         <v>0.3</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="84">
         <v>3</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="84">
         <f>D21*E21</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G21" s="86" t="s">
+      <c r="G21" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="80" t="s">
+      <c r="H21" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="I21" s="86" t="s">
+      <c r="I21" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="79" t="s">
-        <v>146</v>
+      <c r="J21" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="82"/>
+      <c r="L21" s="89" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" customHeight="1">
+    <row r="22" spans="1:12" ht="45" customHeight="1">
       <c r="A22" s="77">
         <v>8</v>
       </c>
       <c r="B22" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="81">
-        <v>0.9</v>
-      </c>
-      <c r="E22" s="82">
+      <c r="D22" s="83">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="84">
         <v>3</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="84">
         <f>D22*E22</f>
-        <v>2.7</v>
-      </c>
-      <c r="G22" s="86" t="s">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G22" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="80" t="s">
+      <c r="H22" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="86" t="s">
+      <c r="I22" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="J22" s="94" t="s">
+      <c r="J22" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="79"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="89" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" ht="36" customHeight="1">
+    <row r="23" spans="1:12" ht="36" customHeight="1">
       <c r="A23" s="77">
         <v>9</v>
       </c>
       <c r="B23" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="83">
         <v>0.3</v>
       </c>
-      <c r="E23" s="82">
+      <c r="E23" s="84">
         <v>5</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="84">
         <f>D23*E23</f>
         <v>1.5</v>
       </c>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="80" t="s">
+      <c r="H23" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="86" t="s">
+      <c r="I23" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="J23" s="94" t="s">
+      <c r="J23" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="79"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="89" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" ht="27" customHeight="1">
-      <c r="A24" s="77">
+    <row r="24" spans="1:12" s="146" customFormat="1" ht="27" customHeight="1">
+      <c r="A24" s="140">
         <v>10</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="81">
-        <v>0.3</v>
-      </c>
-      <c r="E24" s="82">
-        <v>4</v>
-      </c>
-      <c r="F24" s="82">
+      <c r="D24" s="142">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="141">
+        <v>3</v>
+      </c>
+      <c r="F24" s="141">
         <f>D24*E24</f>
-        <v>1.2</v>
-      </c>
-      <c r="G24" s="86" t="s">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G24" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="86" t="s">
+      <c r="I24" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="J24" s="94" t="s">
+      <c r="J24" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="79"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="144" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" ht="27" customHeight="1">
+    <row r="25" spans="1:12" ht="27" customHeight="1">
       <c r="A25" s="77">
         <v>11</v>
       </c>
       <c r="B25" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="81">
-        <v>0.7</v>
-      </c>
-      <c r="E25" s="82">
-        <v>4</v>
-      </c>
-      <c r="F25" s="82">
+      <c r="D25" s="83">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="84">
+        <v>3</v>
+      </c>
+      <c r="F25" s="84">
         <f>D25*E25</f>
-        <v>2.8</v>
-      </c>
-      <c r="G25" s="86" t="s">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G25" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="80" t="s">
+      <c r="H25" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="86" t="s">
+      <c r="I25" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="79"/>
+      <c r="J25" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="82"/>
+      <c r="L25" s="89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="22.5">
+      <c r="A26" s="77">
+        <v>12</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="84">
+        <v>2</v>
+      </c>
+      <c r="F26" s="84">
+        <f t="shared" ref="F26:F32" si="1">D26*E26</f>
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="82"/>
+      <c r="L26" s="89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="22.5">
+      <c r="A27" s="77">
+        <v>13</v>
+      </c>
+      <c r="B27" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="84">
+        <v>1</v>
+      </c>
+      <c r="F27" s="84">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="82"/>
+      <c r="L27" s="89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="22.5">
+      <c r="A28" s="77">
+        <v>14</v>
+      </c>
+      <c r="B28" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="E28" s="84">
+        <v>1</v>
+      </c>
+      <c r="F28" s="84">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="82"/>
+      <c r="L28" s="89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="22.5">
+      <c r="A29" s="77">
+        <v>15</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="E29" s="84">
+        <v>3</v>
+      </c>
+      <c r="F29" s="84">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="82"/>
+      <c r="L29" s="89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="22.5">
+      <c r="A30" s="77">
+        <v>16</v>
+      </c>
+      <c r="B30" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="E30" s="84">
+        <v>2</v>
+      </c>
+      <c r="F30" s="84">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="G30" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="82"/>
+      <c r="L30" s="89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="22.5">
+      <c r="A31" s="77">
+        <v>17</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="E31" s="84">
+        <v>2</v>
+      </c>
+      <c r="F31" s="84">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="82"/>
+      <c r="L31" s="89" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="22.5">
+      <c r="A32" s="77">
+        <v>18</v>
+      </c>
+      <c r="B32" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="84">
+        <v>2</v>
+      </c>
+      <c r="F32" s="84">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="G32" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="82"/>
+      <c r="L32" s="89" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3274,12 +3665,12 @@
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="J13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J15:J25">
+  <conditionalFormatting sqref="J15:J32">
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("Desaparecio",J15)))</formula>
     </cfRule>
@@ -3288,7 +3679,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C32">
       <formula1>Categoria_Origen</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
@@ -3297,16 +3688,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
       <formula1>Linea_Servicio</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:D32">
       <formula1>"0.1,0.3,0.5,0.7,0.9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E32">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J32">
       <formula1>Est_riesgo</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F17 F19:F25"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F17 F19:F32"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -3319,11 +3710,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="B2:G7125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -10681,13 +11084,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B1:S21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
@@ -10712,38 +11115,38 @@
   <sheetData>
     <row r="1" spans="2:19" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
       <c r="H2" s="73" t="s">
         <v>65</v>
       </c>
       <c r="O2" s="21"/>
-      <c r="P2" s="123" t="s">
+      <c r="P2" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="125"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="124"/>
     </row>
     <row r="3" spans="2:19" ht="12.75" customHeight="1" thickBot="1">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="L3" s="135" t="s">
+      <c r="L3" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="136"/>
       <c r="O3" s="21"/>
-      <c r="P3" s="126" t="s">
+      <c r="P3" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="127"/>
+      <c r="Q3" s="126"/>
       <c r="R3" s="59" t="s">
         <v>46</v>
       </c>
@@ -10752,16 +11155,16 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="22.5" customHeight="1" thickBot="1">
-      <c r="L4" s="133" t="s">
+      <c r="L4" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="134"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="43" t="s">
         <v>17</v>
       </c>
       <c r="O4" s="21"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="129"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="128"/>
       <c r="R4" s="47" t="s">
         <v>45</v>
       </c>
@@ -10770,7 +11173,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="30" customHeight="1">
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="129" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -10779,7 +11182,7 @@
       <c r="E5" s="22">
         <v>0.9</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="96"/>
       <c r="G5" s="66"/>
       <c r="H5" s="66"/>
       <c r="I5" s="28"/>
@@ -10808,7 +11211,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="20.25" customHeight="1">
-      <c r="C6" s="131"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
@@ -10844,7 +11247,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="19.5" customHeight="1">
-      <c r="C7" s="131"/>
+      <c r="C7" s="130"/>
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
@@ -10880,7 +11283,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="29.25" customHeight="1">
-      <c r="C8" s="131"/>
+      <c r="C8" s="130"/>
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -10916,7 +11319,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="29.25" customHeight="1" thickBot="1">
-      <c r="C9" s="132"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
@@ -10927,7 +11330,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
-      <c r="J9" s="92"/>
+      <c r="J9" s="97"/>
       <c r="L9" s="41" t="s">
         <v>26</v>
       </c>
@@ -11033,15 +11436,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B21" s="121" t="s">
+    <row r="21" spans="2:10" ht="53.25" customHeight="1">
+      <c r="B21" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
       <c r="H21" s="72" t="s">
         <v>64</v>
       </c>
@@ -11064,12 +11467,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A5:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M85" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -11081,126 +11484,126 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:11">
-      <c r="D5" s="84"/>
+      <c r="D5" s="87"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
     </row>
     <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
     </row>
     <row r="11" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
     </row>
     <row r="12" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
     </row>
     <row r="13" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
     </row>
     <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
